--- a/testing/numVote_benchmark.xlsx
+++ b/testing/numVote_benchmark.xlsx
@@ -15,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -325,11 +324,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="219103928"/>
-        <c:axId val="219104712"/>
+        <c:axId val="675146320"/>
+        <c:axId val="675145928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="219103928"/>
+        <c:axId val="675146320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -433,7 +432,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="219104712"/>
+        <c:crossAx val="675145928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -441,7 +440,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="219104712"/>
+        <c:axId val="675145928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -548,7 +547,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="219103928"/>
+        <c:crossAx val="675146320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -812,11 +811,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="231200976"/>
-        <c:axId val="231202152"/>
+        <c:axId val="675145144"/>
+        <c:axId val="675150240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="231200976"/>
+        <c:axId val="675145144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -920,7 +919,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="231202152"/>
+        <c:crossAx val="675150240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -928,7 +927,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="231202152"/>
+        <c:axId val="675150240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1035,7 +1034,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="231200976"/>
+        <c:crossAx val="675145144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1119,8 +1118,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Number of Vote Thoughput</a:t>
+              <a:t>Number of Vote </a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Throughput </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1324,11 +1330,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="227835328"/>
-        <c:axId val="227836112"/>
+        <c:axId val="675144752"/>
+        <c:axId val="675146712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="227835328"/>
+        <c:axId val="675144752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1434,7 +1440,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="227836112"/>
+        <c:crossAx val="675146712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1442,7 +1448,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="227836112"/>
+        <c:axId val="675146712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1549,7 +1555,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="227835328"/>
+        <c:crossAx val="675144752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3631,7 +3637,7 @@
   <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3728,14 +3734,14 @@
         <v>56.082943916320801</v>
       </c>
       <c r="P2">
-        <f t="shared" ref="P1:P2" si="2">N2/O2</f>
+        <f t="shared" ref="P2" si="2">N2/O2</f>
         <v>1.4264586416748186</v>
       </c>
       <c r="Q2">
         <v>10</v>
       </c>
       <c r="R2" s="2">
-        <f t="shared" ref="R2:R6" si="3">P2*Q2</f>
+        <f t="shared" ref="R2:R4" si="3">P2*Q2</f>
         <v>14.264586416748186</v>
       </c>
     </row>
